--- a/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_MM_G13D.xlsx
+++ b/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_MM_G13D.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="218">
   <si>
     <t>datasource</t>
   </si>
@@ -239,114 +239,18 @@
     <t>66</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
     <t>Panther_2016</t>
   </si>
   <si>
     <t>KEGG_2019_Human</t>
   </si>
   <si>
+    <t>KEA_2015</t>
+  </si>
+  <si>
     <t>WikiPathways_2019_Human</t>
   </si>
   <si>
-    <t>Reactome_2016</t>
-  </si>
-  <si>
-    <t>Transcription_Factor_PPIs</t>
-  </si>
-  <si>
     <t>PPI_Hub_Proteins</t>
   </si>
   <si>
@@ -359,6 +263,9 @@
     <t>ErbB signaling pathway</t>
   </si>
   <si>
+    <t>SGK1</t>
+  </si>
+  <si>
     <t>Chronic myeloid leukemia</t>
   </si>
   <si>
@@ -368,84 +275,84 @@
     <t>ErbB Signaling Pathway WP673</t>
   </si>
   <si>
+    <t>Inhibition of exosome biogenesis and secretion by Manumycin A in CRPC cells WP4301</t>
+  </si>
+  <si>
     <t>Hepatitis B</t>
   </si>
   <si>
     <t>Hepatitis C</t>
   </si>
   <si>
+    <t>Bladder cancer</t>
+  </si>
+  <si>
+    <t>Alcoholism</t>
+  </si>
+  <si>
+    <t>Thyroid cancer</t>
+  </si>
+  <si>
     <t>Gastric cancer</t>
   </si>
   <si>
-    <t>Alcoholism</t>
-  </si>
-  <si>
-    <t>Thyroid cancer</t>
-  </si>
-  <si>
     <t>Viral carcinogenesis</t>
   </si>
   <si>
     <t>Signaling Pathways in Glioblastoma WP2261</t>
   </si>
   <si>
-    <t>Bladder cancer</t>
+    <t>Long-term depression</t>
   </si>
   <si>
     <t>Pathways in cancer</t>
   </si>
   <si>
-    <t>Inhibition of exosome biogenesis and secretion by Manumycin A in CRPC cells WP4301</t>
-  </si>
-  <si>
-    <t>Long-term depression</t>
+    <t>Long-term potentiation</t>
+  </si>
+  <si>
+    <t>Renal cell carcinoma</t>
+  </si>
+  <si>
+    <t>Non-small cell lung cancer</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>PI3K-AKT-mTOR signaling pathway and therapeutic opportunities WP3844</t>
+  </si>
+  <si>
+    <t>Glioma</t>
   </si>
   <si>
     <t>Endometrial cancer</t>
   </si>
   <si>
-    <t>Long-term potentiation</t>
-  </si>
-  <si>
-    <t>Renal cell carcinoma</t>
-  </si>
-  <si>
-    <t>Glioma</t>
-  </si>
-  <si>
-    <t>Non-small cell lung cancer</t>
-  </si>
-  <si>
-    <t>Melanoma</t>
-  </si>
-  <si>
-    <t>PI3K-AKT-mTOR signaling pathway and therapeutic opportunities WP3844</t>
+    <t>Acute myeloid leukemia</t>
+  </si>
+  <si>
+    <t>BDNF-TrkB Signaling WP3676</t>
+  </si>
+  <si>
+    <t>Oxidative Damage WP3941</t>
+  </si>
+  <si>
+    <t>MAPK Cascade WP422</t>
+  </si>
+  <si>
+    <t>Colorectal cancer</t>
+  </si>
+  <si>
+    <t>Bladder Cancer WP2828</t>
+  </si>
+  <si>
+    <t>Aryl Hydrocarbon Receptor WP2586</t>
   </si>
   <si>
     <t>Human papillomavirus infection</t>
   </si>
   <si>
-    <t>Acute myeloid leukemia</t>
-  </si>
-  <si>
-    <t>BDNF-TrkB Signaling WP3676</t>
-  </si>
-  <si>
-    <t>Oxidative Damage WP3941</t>
-  </si>
-  <si>
-    <t>MAPK Cascade WP422</t>
-  </si>
-  <si>
-    <t>Colorectal cancer</t>
-  </si>
-  <si>
-    <t>Bladder Cancer WP2828</t>
-  </si>
-  <si>
-    <t>Aryl Hydrocarbon Receptor WP2586</t>
-  </si>
-  <si>
     <t>Small cell lung cancer</t>
   </si>
   <si>
@@ -464,18 +371,21 @@
     <t>VEGF signaling pathway_Homo sapiens_P00056</t>
   </si>
   <si>
+    <t>Neurotrophin signaling pathway</t>
+  </si>
+  <si>
     <t>MET in type 1 papillary renal cell carcinoma WP4205</t>
   </si>
   <si>
-    <t>Neurotrophin signaling pathway</t>
-  </si>
-  <si>
     <t>Endometrial cancer WP4155</t>
   </si>
   <si>
     <t>Non-small cell lung cancer WP4255</t>
   </si>
   <si>
+    <t>Primary Focal Segmental Glomerulosclerosis FSGS WP2572</t>
+  </si>
+  <si>
     <t>Ras Pathway_Homo sapiens_P04393</t>
   </si>
   <si>
@@ -521,126 +431,24 @@
     <t>Epstein-Barr virus infection</t>
   </si>
   <si>
+    <t>Integrin signalling pathway_Homo sapiens_P00034</t>
+  </si>
+  <si>
     <t>Regulation of actin cytoskeleton</t>
   </si>
   <si>
     <t>Senescence and Autophagy in Cancer WP615</t>
   </si>
   <si>
+    <t>Cadherin signaling pathway_Homo sapiens_P00012</t>
+  </si>
+  <si>
+    <t>DNA Damage Response (only ATM dependent) WP710</t>
+  </si>
+  <si>
     <t>Angiogenesis_Homo sapiens_P00005</t>
   </si>
   <si>
-    <t>DNA Damage Response (only ATM dependent) WP710</t>
-  </si>
-  <si>
-    <t>Integrin signalling pathway_Homo sapiens_P00034</t>
-  </si>
-  <si>
-    <t>Signaling by FGFR_Homo sapiens_R-HSA-190236</t>
-  </si>
-  <si>
-    <t>NGF signalling via TRKA from the plasma membrane_Homo sapiens_R-HSA-187037</t>
-  </si>
-  <si>
-    <t>Signaling by PDGF_Homo sapiens_R-HSA-186797</t>
-  </si>
-  <si>
-    <t>Signaling by FGFR2_Homo sapiens_R-HSA-5654738</t>
-  </si>
-  <si>
-    <t>IRF1</t>
-  </si>
-  <si>
-    <t>DAP12 interactions_Homo sapiens_R-HSA-2172127</t>
-  </si>
-  <si>
-    <t>Innate Immune System_Homo sapiens_R-HSA-168249</t>
-  </si>
-  <si>
-    <t>Signaling by EGFR_Homo sapiens_R-HSA-177929</t>
-  </si>
-  <si>
-    <t>MAPK signaling pathway</t>
-  </si>
-  <si>
-    <t>MicroRNAs in cancer</t>
-  </si>
-  <si>
-    <t>Fc epsilon receptor (FCERI) signaling_Homo sapiens_R-HSA-2454202</t>
-  </si>
-  <si>
-    <t>DAP12 signaling_Homo sapiens_R-HSA-2424491</t>
-  </si>
-  <si>
-    <t>Breast cancer pathway WP4262</t>
-  </si>
-  <si>
-    <t>Regulation of Actin Cytoskeleton WP51</t>
-  </si>
-  <si>
-    <t>Downstream signal transduction_Homo sapiens_R-HSA-186763</t>
-  </si>
-  <si>
-    <t>Signaling by FGFR1_Homo sapiens_R-HSA-5654736</t>
-  </si>
-  <si>
-    <t>Chemokine signaling pathway WP3929</t>
-  </si>
-  <si>
-    <t>Signaling by FGFR3_Homo sapiens_R-HSA-5654741</t>
-  </si>
-  <si>
-    <t>Downstream signaling of activated FGFR1_Homo sapiens_R-HSA-5654687</t>
-  </si>
-  <si>
-    <t>Negative regulation of MAPK pathway_Homo sapiens_R-HSA-5675221</t>
-  </si>
-  <si>
-    <t>PI3K-Akt signaling pathway</t>
-  </si>
-  <si>
-    <t>Signalling by NGF_Homo sapiens_R-HSA-166520</t>
-  </si>
-  <si>
-    <t>Signaling by FGFR4_Homo sapiens_R-HSA-5654743</t>
-  </si>
-  <si>
-    <t>Signaling by ERBB4_Homo sapiens_R-HSA-1236394</t>
-  </si>
-  <si>
-    <t>RAF activation_Homo sapiens_R-HSA-5673000</t>
-  </si>
-  <si>
-    <t>YWHAQ</t>
-  </si>
-  <si>
-    <t>Downstream signaling of activated FGFR3_Homo sapiens_R-HSA-5654708</t>
-  </si>
-  <si>
-    <t>MAP3K1</t>
-  </si>
-  <si>
-    <t>MAP2K and MAPK activation_Homo sapiens_R-HSA-5674135</t>
-  </si>
-  <si>
-    <t>NFKB2</t>
-  </si>
-  <si>
-    <t>Axon guidance_Homo sapiens_R-HSA-422475</t>
-  </si>
-  <si>
-    <t>YWHAH</t>
-  </si>
-  <si>
-    <t>Downstream signaling of activated FGFR4_Homo sapiens_R-HSA-5654716</t>
-  </si>
-  <si>
-    <t>YWHAE</t>
-  </si>
-  <si>
-    <t>TNFRSF1A</t>
-  </si>
-  <si>
     <t>3/86</t>
   </si>
   <si>
@@ -650,6 +458,9 @@
     <t>3/85</t>
   </si>
   <si>
+    <t>3/68</t>
+  </si>
+  <si>
     <t>3/76</t>
   </si>
   <si>
@@ -659,78 +470,78 @@
     <t>3/91</t>
   </si>
   <si>
+    <t>2/18</t>
+  </si>
+  <si>
     <t>3/163</t>
   </si>
   <si>
     <t>3/155</t>
   </si>
   <si>
+    <t>2/41</t>
+  </si>
+  <si>
+    <t>3/180</t>
+  </si>
+  <si>
+    <t>2/37</t>
+  </si>
+  <si>
     <t>3/149</t>
   </si>
   <si>
-    <t>3/180</t>
-  </si>
-  <si>
-    <t>2/37</t>
-  </si>
-  <si>
     <t>3/201</t>
   </si>
   <si>
     <t>3/82</t>
   </si>
   <si>
-    <t>2/41</t>
+    <t>2/60</t>
   </si>
   <si>
     <t>4/530</t>
   </si>
   <si>
-    <t>2/18</t>
-  </si>
-  <si>
-    <t>2/60</t>
+    <t>2/67</t>
+  </si>
+  <si>
+    <t>2/69</t>
+  </si>
+  <si>
+    <t>2/66</t>
+  </si>
+  <si>
+    <t>2/72</t>
+  </si>
+  <si>
+    <t>2/30</t>
+  </si>
+  <si>
+    <t>2/75</t>
   </si>
   <si>
     <t>2/58</t>
   </si>
   <si>
-    <t>2/67</t>
-  </si>
-  <si>
-    <t>2/69</t>
-  </si>
-  <si>
-    <t>2/75</t>
-  </si>
-  <si>
-    <t>2/66</t>
-  </si>
-  <si>
-    <t>2/72</t>
-  </si>
-  <si>
-    <t>2/30</t>
+    <t>2/34</t>
+  </si>
+  <si>
+    <t>2/40</t>
+  </si>
+  <si>
+    <t>2/29</t>
+  </si>
+  <si>
+    <t>2/86</t>
+  </si>
+  <si>
+    <t>2/46</t>
   </si>
   <si>
     <t>3/330</t>
   </si>
   <si>
-    <t>2/34</t>
-  </si>
-  <si>
-    <t>2/40</t>
-  </si>
-  <si>
-    <t>2/29</t>
-  </si>
-  <si>
-    <t>2/86</t>
-  </si>
-  <si>
-    <t>2/46</t>
-  </si>
-  <si>
     <t>2/93</t>
   </si>
   <si>
@@ -746,12 +557,12 @@
     <t>2/54</t>
   </si>
   <si>
+    <t>2/119</t>
+  </si>
+  <si>
     <t>2/59</t>
   </si>
   <si>
-    <t>2/119</t>
-  </si>
-  <si>
     <t>2/63</t>
   </si>
   <si>
@@ -776,6 +587,9 @@
     <t>2/168</t>
   </si>
   <si>
+    <t>3/135</t>
+  </si>
+  <si>
     <t>2/112</t>
   </si>
   <si>
@@ -794,123 +608,39 @@
     <t>2/206</t>
   </si>
   <si>
+    <t>2/156</t>
+  </si>
+  <si>
     <t>2/214</t>
   </si>
   <si>
     <t>2/105</t>
   </si>
   <si>
+    <t>2/150</t>
+  </si>
+  <si>
+    <t>2/110</t>
+  </si>
+  <si>
     <t>2/142</t>
   </si>
   <si>
-    <t>2/110</t>
-  </si>
-  <si>
-    <t>2/156</t>
-  </si>
-  <si>
-    <t>3/366</t>
-  </si>
-  <si>
-    <t>3/374</t>
-  </si>
-  <si>
-    <t>3/364</t>
-  </si>
-  <si>
-    <t>3/361</t>
-  </si>
-  <si>
-    <t>2/45</t>
-  </si>
-  <si>
-    <t>3/359</t>
-  </si>
-  <si>
-    <t>4/807</t>
-  </si>
-  <si>
-    <t>3/355</t>
-  </si>
-  <si>
-    <t>2/295</t>
-  </si>
-  <si>
-    <t>2/299</t>
-  </si>
-  <si>
-    <t>3/395</t>
-  </si>
-  <si>
-    <t>3/344</t>
-  </si>
-  <si>
-    <t>2/154</t>
-  </si>
-  <si>
-    <t>2/150</t>
-  </si>
-  <si>
-    <t>3/341</t>
-  </si>
-  <si>
-    <t>3/336</t>
-  </si>
-  <si>
-    <t>2/164</t>
-  </si>
-  <si>
-    <t>3/333</t>
-  </si>
-  <si>
-    <t>3/332</t>
-  </si>
-  <si>
-    <t>2/354</t>
-  </si>
-  <si>
-    <t>3/450</t>
-  </si>
-  <si>
-    <t>2/25</t>
-  </si>
-  <si>
-    <t>2/188</t>
-  </si>
-  <si>
-    <t>3/329</t>
-  </si>
-  <si>
-    <t>2/184</t>
-  </si>
-  <si>
-    <t>2/38</t>
-  </si>
-  <si>
-    <t>3/515</t>
-  </si>
-  <si>
-    <t>2/177</t>
-  </si>
-  <si>
-    <t>2/215</t>
-  </si>
-  <si>
-    <t>2/173</t>
-  </si>
-  <si>
     <t>NRAS;CDKN1B;BRAF</t>
   </si>
   <si>
+    <t>CDKN1B;PCLO;BRAF</t>
+  </si>
+  <si>
+    <t>NRAS;BRAF</t>
+  </si>
+  <si>
     <t>NRAS;TRAF3;BRAF</t>
   </si>
   <si>
     <t>NRAS;HIST1H2AE;BRAF</t>
   </si>
   <si>
-    <t>NRAS;BRAF</t>
-  </si>
-  <si>
     <t>NRAS;CDKN1B;TRAF3</t>
   </si>
   <si>
@@ -926,22 +656,16 @@
     <t>CDKN1B;BRAF</t>
   </si>
   <si>
+    <t>CDKN1B;FAT1</t>
+  </si>
+  <si>
     <t>ROBO3;NRAS</t>
   </si>
   <si>
     <t>NRAS;TRAF3</t>
   </si>
   <si>
-    <t>HSPA9;BRAF</t>
-  </si>
-  <si>
-    <t>HSPA9;TRAF3</t>
-  </si>
-  <si>
-    <t>ROBO3;NRAS;BRAF</t>
-  </si>
-  <si>
-    <t>HSPA9;HIST1H2AE</t>
+    <t>PCDH15;FAT1</t>
   </si>
 </sst>
 </file>
@@ -1027,28 +751,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="E2" t="n">
-        <v>1.6420668661716537E-5</v>
+        <v>7.07683312265202E-5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0018391148901122521</v>
+        <v>0.007926053097370262</v>
       </c>
       <c r="G2" t="n">
-        <v>58.139534883720934</v>
+        <v>36.719706242350064</v>
       </c>
       <c r="H2" t="n">
-        <v>640.5214960682963</v>
+        <v>350.89714650158317</v>
       </c>
       <c r="I2" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="J2" t="n">
         <v>3.0</v>
@@ -1059,28 +783,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="E3" t="n">
-        <v>2.3569319897919045E-5</v>
+        <v>1.0128443617598079E-4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0024197835095196886</v>
+        <v>0.010398535447400695</v>
       </c>
       <c r="G3" t="n">
-        <v>51.54639175257733</v>
+        <v>32.555615843733044</v>
       </c>
       <c r="H3" t="n">
-        <v>549.2559121647863</v>
+        <v>299.4328095308299</v>
       </c>
       <c r="I3" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="J3" t="n">
         <v>3.0</v>
@@ -1091,28 +815,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="E4" t="n">
-        <v>1.5853207730829946E-5</v>
+        <v>6.834065620830301E-5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0024413939905478118</v>
+        <v>0.010524461056078665</v>
       </c>
       <c r="G4" t="n">
-        <v>58.82352941176471</v>
+        <v>37.15170278637771</v>
       </c>
       <c r="H4" t="n">
-        <v>650.1258057425383</v>
+        <v>356.3221935310842</v>
       </c>
       <c r="I4" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="J4" t="n">
         <v>3.0</v>
@@ -1123,28 +847,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="E5" t="n">
-        <v>1.131793592175856E-5</v>
+        <v>3.503155869033606E-5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0034859242639016363</v>
+        <v>0.014993507119463833</v>
       </c>
       <c r="G5" t="n">
-        <v>65.78947368421053</v>
+        <v>46.43962848297214</v>
       </c>
       <c r="H5" t="n">
-        <v>749.284331636993</v>
+        <v>476.4362798393734</v>
       </c>
       <c r="I5" t="s">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="J5" t="n">
         <v>3.0</v>
@@ -1155,28 +879,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="E6" t="n">
-        <v>5.918767411419875E-5</v>
+        <v>4.8905112061063594E-5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004557450906793304</v>
+        <v>0.015062774514807586</v>
       </c>
       <c r="G6" t="n">
-        <v>37.87878787878788</v>
+        <v>41.55124653739612</v>
       </c>
       <c r="H6" t="n">
-        <v>368.742319897081</v>
+        <v>412.4222420701431</v>
       </c>
       <c r="I6" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="J6" t="n">
         <v>3.0</v>
@@ -1187,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="E7" t="n">
-        <v>1.9459633392918316E-5</v>
+        <v>2.5202536939223047E-4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004592473480728722</v>
+        <v>0.019405953443201746</v>
       </c>
       <c r="G7" t="n">
-        <v>54.94505494505495</v>
+        <v>23.923444976076556</v>
       </c>
       <c r="H7" t="n">
-        <v>595.9982593621512</v>
+        <v>198.22920582125755</v>
       </c>
       <c r="I7" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="J7" t="n">
         <v>3.0</v>
@@ -1219,28 +943,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="E8" t="n">
-        <v>1.107686908813774E-4</v>
+        <v>8.375551803356849E-5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004873822398780606</v>
+        <v>0.019766302255922165</v>
       </c>
       <c r="G8" t="n">
-        <v>30.674846625766875</v>
+        <v>34.70213996529786</v>
       </c>
       <c r="H8" t="n">
-        <v>279.3885397808346</v>
+        <v>325.77010419184154</v>
       </c>
       <c r="I8" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
       <c r="J8" t="n">
         <v>3.0</v>
@@ -1251,31 +975,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="E9" t="n">
-        <v>9.541308537884045E-5</v>
+        <v>1.2963563814508892E-4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0048978717161138096</v>
+        <v>0.02039600706816066</v>
       </c>
       <c r="G9" t="n">
-        <v>32.25806451612904</v>
+        <v>116.95906432748538</v>
       </c>
       <c r="H9" t="n">
-        <v>298.62241372954344</v>
+        <v>1046.8751843462362</v>
       </c>
       <c r="I9" t="s">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="J9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -1283,28 +1007,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="E10" t="n">
-        <v>8.486154784068585E-5</v>
+        <v>4.6784881965878316E-4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005227471346986248</v>
+        <v>0.02058534806498646</v>
       </c>
       <c r="G10" t="n">
-        <v>33.557046979865774</v>
+        <v>19.373587342589605</v>
       </c>
       <c r="H10" t="n">
-        <v>314.5801838397241</v>
+        <v>148.5443722793176</v>
       </c>
       <c r="I10" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="J10" t="n">
         <v>3.0</v>
@@ -1315,28 +1039,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="E11" t="n">
-        <v>1.4857144655761577E-4</v>
+        <v>4.038366410340549E-4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005720000692468207</v>
+        <v>0.02073028090641482</v>
       </c>
       <c r="G11" t="n">
-        <v>27.77777777777778</v>
+        <v>20.37351443123939</v>
       </c>
       <c r="H11" t="n">
-        <v>244.8456831617584</v>
+        <v>159.20883087916397</v>
       </c>
       <c r="I11" t="s">
-        <v>297</v>
+        <v>207</v>
       </c>
       <c r="J11" t="n">
         <v>3.0</v>
@@ -1347,28 +1071,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="E12" t="n">
-        <v>2.172337207618483E-4</v>
+        <v>6.857960874714185E-4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006082544181331751</v>
+        <v>0.02112251949411969</v>
       </c>
       <c r="G12" t="n">
-        <v>90.0900900900901</v>
+        <v>51.34788189987163</v>
       </c>
       <c r="H12" t="n">
-        <v>759.8681738584222</v>
+        <v>374.0657367398944</v>
       </c>
       <c r="I12" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J12" t="n">
         <v>2.0</v>
@@ -1379,28 +1103,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="E13" t="n">
-        <v>2.057695584047792E-4</v>
+        <v>6.247299348274398E-4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006337702398867199</v>
+        <v>0.021379646658539052</v>
       </c>
       <c r="G13" t="n">
-        <v>24.875621890547265</v>
+        <v>17.54385964912281</v>
       </c>
       <c r="H13" t="n">
-        <v>211.16302646391657</v>
+        <v>129.44194922610393</v>
       </c>
       <c r="I13" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="J13" t="n">
         <v>3.0</v>
@@ -1411,31 +1135,31 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="E14" t="n">
-        <v>1.4228846306489486E-5</v>
+        <v>5.582623390369758E-4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006716015456663038</v>
+        <v>0.02149310005292357</v>
       </c>
       <c r="G14" t="n">
-        <v>60.97560975609756</v>
+        <v>56.899004267425326</v>
       </c>
       <c r="H14" t="n">
-        <v>680.5023917003938</v>
+        <v>426.2123222999485</v>
       </c>
       <c r="I14" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="J14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -1443,31 +1167,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="E15" t="n">
-        <v>2.6710895227871097E-4</v>
+        <v>3.597417186854042E-4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006855796441820248</v>
+        <v>0.0221600898710209</v>
       </c>
       <c r="G15" t="n">
-        <v>81.30081300813009</v>
+        <v>21.193924408336276</v>
       </c>
       <c r="H15" t="n">
-        <v>668.931213156854</v>
+        <v>168.0704535238276</v>
       </c>
       <c r="I15" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="J15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -1475,31 +1199,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="E16" t="n">
-        <v>2.0375396477277237E-4</v>
+        <v>8.605047393204754E-4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006972913461112655</v>
+        <v>0.02409413270097331</v>
       </c>
       <c r="G16" t="n">
-        <v>12.578616352201259</v>
+        <v>15.710919088766692</v>
       </c>
       <c r="H16" t="n">
-        <v>106.90059556006483</v>
+        <v>110.88753235965748</v>
       </c>
       <c r="I16" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="J16" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -1507,31 +1231,31 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="E17" t="n">
-        <v>5.022152730310081E-5</v>
+        <v>6.138656508168155E-5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00790152029568786</v>
+        <v>0.02897445871855369</v>
       </c>
       <c r="G17" t="n">
-        <v>185.1851851851852</v>
+        <v>38.51091142490372</v>
       </c>
       <c r="H17" t="n">
-        <v>1833.1605171202139</v>
+        <v>373.4911254107107</v>
       </c>
       <c r="I17" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="J17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -1539,28 +1263,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="E18" t="n">
-        <v>5.729274139905555E-4</v>
+        <v>0.0014644900548893547</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01260440310779222</v>
+        <v>0.03221878120756581</v>
       </c>
       <c r="G18" t="n">
-        <v>55.55555555555556</v>
+        <v>35.08771929824562</v>
       </c>
       <c r="H18" t="n">
-        <v>414.7084181348954</v>
+        <v>228.9911642985491</v>
       </c>
       <c r="I18" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J18" t="n">
         <v>2.0</v>
@@ -1571,31 +1295,31 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="E19" t="n">
-        <v>5.354125163723767E-4</v>
+        <v>0.0013767721484934758</v>
       </c>
       <c r="F19" t="n">
-        <v>0.012685158080207077</v>
+        <v>0.03261890936430696</v>
       </c>
       <c r="G19" t="n">
-        <v>57.4712643678161</v>
+        <v>7.944389275074479</v>
       </c>
       <c r="H19" t="n">
-        <v>432.90074997363837</v>
+        <v>52.337744130533125</v>
       </c>
       <c r="I19" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="J19" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
@@ -1603,28 +1327,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="E20" t="n">
-        <v>7.140068594000316E-4</v>
+        <v>0.001822143897886634</v>
       </c>
       <c r="F20" t="n">
-        <v>0.012936124276188808</v>
+        <v>0.03301296003229901</v>
       </c>
       <c r="G20" t="n">
-        <v>49.75124378109453</v>
+        <v>31.421838177533385</v>
       </c>
       <c r="H20" t="n">
-        <v>360.42875565512395</v>
+        <v>198.20083284459022</v>
       </c>
       <c r="I20" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J20" t="n">
         <v>2.0</v>
@@ -1635,28 +1359,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="E21" t="n">
-        <v>7.570983460178036E-4</v>
+        <v>0.0019312157246589574</v>
       </c>
       <c r="F21" t="n">
-        <v>0.012954793920749084</v>
+        <v>0.033045246844164385</v>
       </c>
       <c r="G21" t="n">
-        <v>48.309178743961354</v>
+        <v>30.511060259344013</v>
       </c>
       <c r="H21" t="n">
-        <v>347.1505989123597</v>
+        <v>190.6820919977153</v>
       </c>
       <c r="I21" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J21" t="n">
         <v>2.0</v>
@@ -1667,28 +1391,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="E22" t="n">
-        <v>8.937564748422882E-4</v>
+        <v>0.0017687514504928004</v>
       </c>
       <c r="F22" t="n">
-        <v>0.013108428297686894</v>
+        <v>0.03404846542198641</v>
       </c>
       <c r="G22" t="n">
-        <v>44.44444444444445</v>
+        <v>31.89792663476874</v>
       </c>
       <c r="H22" t="n">
-        <v>312.00343197348957</v>
+        <v>202.15251599701634</v>
       </c>
       <c r="I22" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J22" t="n">
         <v>2.0</v>
@@ -1699,28 +1423,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="E23" t="n">
-        <v>6.929240138066527E-4</v>
+        <v>0.00210052068763106</v>
       </c>
       <c r="F23" t="n">
-        <v>0.013338787265778064</v>
+        <v>0.0340505458837035</v>
       </c>
       <c r="G23" t="n">
-        <v>50.50505050505051</v>
+        <v>29.239766081871345</v>
       </c>
       <c r="H23" t="n">
-        <v>367.4035461097385</v>
+        <v>180.27982510220554</v>
       </c>
       <c r="I23" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J23" t="n">
         <v>2.0</v>
@@ -1731,28 +1455,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="E24" t="n">
-        <v>8.240453340764276E-4</v>
+        <v>3.6607797729844163E-4</v>
       </c>
       <c r="F24" t="n">
-        <v>0.013358208573449458</v>
+        <v>0.03455776105697289</v>
       </c>
       <c r="G24" t="n">
-        <v>46.2962962962963</v>
+        <v>70.17543859649123</v>
       </c>
       <c r="H24" t="n">
-        <v>328.76319502246037</v>
+        <v>555.2746803177148</v>
       </c>
       <c r="I24" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="J24" t="n">
         <v>2.0</v>
@@ -1763,28 +1487,28 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="E25" t="n">
-        <v>1.4221789991262262E-4</v>
+        <v>0.0022766302326294946</v>
       </c>
       <c r="F25" t="n">
-        <v>0.013425369751751575</v>
+        <v>0.035060105582494214</v>
       </c>
       <c r="G25" t="n">
-        <v>111.11111111111111</v>
+        <v>28.070175438596493</v>
       </c>
       <c r="H25" t="n">
-        <v>984.2389077875584</v>
+        <v>170.8086708051372</v>
       </c>
       <c r="I25" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="J25" t="n">
         <v>2.0</v>
@@ -1795,31 +1519,31 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="E26" t="n">
-        <v>8.767814480065015E-4</v>
+        <v>0.0013692327649010019</v>
       </c>
       <c r="F26" t="n">
-        <v>0.013502434299300124</v>
+        <v>0.03514364096579238</v>
       </c>
       <c r="G26" t="n">
-        <v>15.151515151515152</v>
+        <v>36.29764065335753</v>
       </c>
       <c r="H26" t="n">
-        <v>106.65534546584972</v>
+        <v>239.32866503211358</v>
       </c>
       <c r="I26" t="s">
-        <v>299</v>
+        <v>206</v>
       </c>
       <c r="J26" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -1827,28 +1551,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="E27" t="n">
-        <v>6.929240138066527E-4</v>
+        <v>0.0017687514504928004</v>
       </c>
       <c r="F27" t="n">
-        <v>0.014228039750163268</v>
+        <v>0.036318363116785504</v>
       </c>
       <c r="G27" t="n">
-        <v>50.50505050505051</v>
+        <v>31.89792663476874</v>
       </c>
       <c r="H27" t="n">
-        <v>367.4035461097385</v>
+        <v>202.15251599701634</v>
       </c>
       <c r="I27" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J27" t="n">
         <v>2.0</v>
@@ -1859,28 +1583,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="E28" t="n">
-        <v>1.831680104570772E-4</v>
+        <v>4.710469585153871E-4</v>
       </c>
       <c r="F28" t="n">
-        <v>0.014409216822623408</v>
+        <v>0.03705569406987712</v>
       </c>
       <c r="G28" t="n">
-        <v>98.03921568627452</v>
+        <v>61.919504643962846</v>
       </c>
       <c r="H28" t="n">
-        <v>843.6379153313978</v>
+        <v>474.3376327745815</v>
       </c>
       <c r="I28" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J28" t="n">
         <v>2.0</v>
@@ -1891,28 +1615,28 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="E29" t="n">
-        <v>2.5416386531107297E-4</v>
+        <v>6.527118331915355E-4</v>
       </c>
       <c r="F29" t="n">
-        <v>0.014995668053353305</v>
+        <v>0.03850999815830059</v>
       </c>
       <c r="G29" t="n">
-        <v>83.33333333333334</v>
+        <v>52.631578947368425</v>
       </c>
       <c r="H29" t="n">
-        <v>689.7942799948736</v>
+        <v>386.0197275202614</v>
       </c>
       <c r="I29" t="s">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="J29" t="n">
         <v>2.0</v>
@@ -1923,28 +1647,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
         <v>108</v>
       </c>
-      <c r="C30" t="s">
-        <v>140</v>
-      </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="E30" t="n">
-        <v>1.3278088986713745E-4</v>
+        <v>3.418661725917297E-4</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01566814500432222</v>
+        <v>0.04034020836582411</v>
       </c>
       <c r="G30" t="n">
-        <v>114.9425287356322</v>
+        <v>72.59528130671507</v>
       </c>
       <c r="H30" t="n">
-        <v>1026.0701417103046</v>
+        <v>579.3895612119072</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J30" t="n">
         <v>2.0</v>
@@ -1955,28 +1679,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001172875914050852</v>
+        <v>0.0029800022502311685</v>
       </c>
       <c r="F31" t="n">
-        <v>0.016420262796711927</v>
+        <v>0.043706699670057136</v>
       </c>
       <c r="G31" t="n">
-        <v>38.759689922480625</v>
+        <v>24.479804161566708</v>
       </c>
       <c r="H31" t="n">
-        <v>261.561879846098</v>
+        <v>142.37040938443033</v>
       </c>
       <c r="I31" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J31" t="n">
         <v>2.0</v>
@@ -1987,28 +1711,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="E32" t="n">
-        <v>2.5416386531107297E-4</v>
+        <v>6.527118331915355E-4</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01713790634668949</v>
+        <v>0.04401142646662925</v>
       </c>
       <c r="G32" t="n">
-        <v>83.33333333333334</v>
+        <v>52.631578947368425</v>
       </c>
       <c r="H32" t="n">
-        <v>689.7942799948736</v>
+        <v>386.0197275202614</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J32" t="n">
         <v>2.0</v>
@@ -2019,28 +1743,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="E33" t="n">
-        <v>3.3658272069457453E-4</v>
+        <v>8.631631629479798E-4</v>
       </c>
       <c r="F33" t="n">
-        <v>0.017651893796426576</v>
+        <v>0.04526811254571627</v>
       </c>
       <c r="G33" t="n">
-        <v>72.46376811594203</v>
+        <v>45.76659038901602</v>
       </c>
       <c r="H33" t="n">
-        <v>579.468595098561</v>
+        <v>322.8790306600324</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="J33" t="n">
         <v>2.0</v>
@@ -2051,31 +1775,31 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001369596559651751</v>
+        <v>0.003545228511435026</v>
       </c>
       <c r="F34" t="n">
-        <v>0.018340684364032144</v>
+        <v>0.04747523397921687</v>
       </c>
       <c r="G34" t="n">
-        <v>35.84229390681004</v>
+        <v>9.569377990430622</v>
       </c>
       <c r="H34" t="n">
-        <v>236.3168123482604</v>
+        <v>53.99189149156148</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="J34" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="35">
@@ -2083,28 +1807,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="E35" t="n">
-        <v>0.001581045102291189</v>
+        <v>0.003474178289899556</v>
       </c>
       <c r="F35" t="n">
-        <v>0.020290078812736926</v>
+        <v>0.04863849605859378</v>
       </c>
       <c r="G35" t="n">
-        <v>33.333333333333336</v>
+        <v>22.637238256932655</v>
       </c>
       <c r="H35" t="n">
-        <v>214.98897311544326</v>
+        <v>128.18103658778725</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="J35" t="n">
         <v>2.0</v>
@@ -2115,28 +1839,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="E36" t="n">
-        <v>8.469756722727654E-4</v>
+        <v>0.004004045638803338</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02371531882363743</v>
+        <v>0.051385252364642836</v>
       </c>
       <c r="G36" t="n">
-        <v>45.662100456621005</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="H36" t="n">
-        <v>323.006328125701</v>
+        <v>116.22000040613877</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="J36" t="n">
         <v>2.0</v>
@@ -2147,28 +1871,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002012447655534119</v>
+        <v>0.002158469583729576</v>
       </c>
       <c r="F37" t="n">
-        <v>0.024793355116180346</v>
+        <v>0.06043714834442813</v>
       </c>
       <c r="G37" t="n">
-        <v>29.498525073746315</v>
+        <v>28.83922134102379</v>
       </c>
       <c r="H37" t="n">
-        <v>183.1387480437257</v>
+        <v>177.02540257996807</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J37" t="n">
         <v>2.0</v>
@@ -2179,28 +1903,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="E38" t="n">
-        <v>6.929240138066527E-4</v>
+        <v>0.005081263238737216</v>
       </c>
       <c r="F38" t="n">
-        <v>0.025158471885903082</v>
+        <v>0.0626011631012425</v>
       </c>
       <c r="G38" t="n">
-        <v>50.50505050505051</v>
+        <v>18.63064741499767</v>
       </c>
       <c r="H38" t="n">
-        <v>367.4035461097385</v>
+        <v>98.4107196881604</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="J38" t="n">
         <v>2.0</v>
@@ -2211,28 +1935,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="E39" t="n">
-        <v>4.641239039697884E-4</v>
+        <v>0.0017687514504928004</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02599093862230815</v>
+        <v>0.06421928343327707</v>
       </c>
       <c r="G39" t="n">
-        <v>61.7283950617284</v>
+        <v>31.89792663476874</v>
       </c>
       <c r="H39" t="n">
-        <v>473.7875930226985</v>
+        <v>202.15251599701634</v>
       </c>
       <c r="I39" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="J39" t="n">
         <v>2.0</v>
@@ -2243,28 +1967,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="E40" t="n">
-        <v>5.540143472810427E-4</v>
+        <v>0.0011880280003667813</v>
       </c>
       <c r="F40" t="n">
-        <v>0.026149477191665216</v>
+        <v>0.06652956802053975</v>
       </c>
       <c r="G40" t="n">
-        <v>56.49717514124294</v>
+        <v>38.98635477582846</v>
       </c>
       <c r="H40" t="n">
-        <v>423.6338968323795</v>
+        <v>262.5910522022272</v>
       </c>
       <c r="I40" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J40" t="n">
         <v>2.0</v>
@@ -2275,28 +1999,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0022283786053078317</v>
+        <v>0.005618663271592417</v>
       </c>
       <c r="F41" t="n">
-        <v>0.026397715785954314</v>
+        <v>0.06655954952501787</v>
       </c>
       <c r="G41" t="n">
-        <v>28.011204481792717</v>
+        <v>17.69128704113224</v>
       </c>
       <c r="H41" t="n">
-        <v>171.04988909760837</v>
+        <v>91.67026086506212</v>
       </c>
       <c r="I41" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J41" t="n">
         <v>2.0</v>
@@ -2307,28 +2031,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="E42" t="n">
-        <v>6.315308572079307E-4</v>
+        <v>0.0014164746328200488</v>
       </c>
       <c r="F42" t="n">
-        <v>0.027098414963831207</v>
+        <v>0.0668576026691063</v>
       </c>
       <c r="G42" t="n">
-        <v>52.91005291005291</v>
+        <v>35.68242640499554</v>
       </c>
       <c r="H42" t="n">
-        <v>389.8076060324706</v>
+        <v>234.0618785800391</v>
       </c>
       <c r="I42" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J42" t="n">
         <v>2.0</v>
@@ -2339,28 +2063,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="E43" t="n">
-        <v>6.929240138066527E-4</v>
+        <v>0.001613164103540397</v>
       </c>
       <c r="F43" t="n">
-        <v>0.027255011209728338</v>
+        <v>0.06921940517009705</v>
       </c>
       <c r="G43" t="n">
-        <v>50.50505050505051</v>
+        <v>33.41687552213868</v>
       </c>
       <c r="H43" t="n">
-        <v>367.4035461097385</v>
+        <v>214.85573089133746</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J43" t="n">
         <v>2.0</v>
@@ -2371,28 +2095,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="E44" t="n">
-        <v>7.570983460178036E-4</v>
+        <v>0.0017687514504928004</v>
       </c>
       <c r="F44" t="n">
-        <v>0.028265004917998004</v>
+        <v>0.06957089038605015</v>
       </c>
       <c r="G44" t="n">
-        <v>48.309178743961354</v>
+        <v>31.89792663476874</v>
       </c>
       <c r="H44" t="n">
-        <v>347.1505989123597</v>
+        <v>202.15251599701634</v>
       </c>
       <c r="I44" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J44" t="n">
         <v>2.0</v>
@@ -2403,28 +2127,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0026917731636562324</v>
+        <v>0.00210052068763106</v>
       </c>
       <c r="F45" t="n">
-        <v>0.030706153126152574</v>
+        <v>0.07081755461156145</v>
       </c>
       <c r="G45" t="n">
-        <v>25.445292620865143</v>
+        <v>29.239766081871345</v>
       </c>
       <c r="H45" t="n">
-        <v>150.5739219816585</v>
+        <v>180.27982510220554</v>
       </c>
       <c r="I45" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="J45" t="n">
         <v>2.0</v>
@@ -2435,28 +2159,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0029813344922671476</v>
+        <v>0.0019312157246589574</v>
       </c>
       <c r="F46" t="n">
-        <v>0.031663828400630395</v>
+        <v>0.07209872038726774</v>
       </c>
       <c r="G46" t="n">
-        <v>24.154589371980677</v>
+        <v>30.511060259344013</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4682189011484</v>
+        <v>190.6820919977153</v>
       </c>
       <c r="I46" t="s">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="J46" t="n">
         <v>2.0</v>
@@ -2467,28 +2191,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0029391057022227834</v>
+        <v>0.006768262653070667</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03233016272445062</v>
+        <v>0.07720832952391724</v>
       </c>
       <c r="G47" t="n">
-        <v>24.330900243309003</v>
+        <v>16.070711128967456</v>
       </c>
       <c r="H47" t="n">
-        <v>141.84063082291908</v>
+        <v>80.28141180158156</v>
       </c>
       <c r="I47" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J47" t="n">
         <v>2.0</v>
@@ -2499,28 +2223,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0033742647269347156</v>
+        <v>0.007484226238104656</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03464245119652975</v>
+        <v>0.07948764418400807</v>
       </c>
       <c r="G48" t="n">
-        <v>22.67573696145125</v>
+        <v>15.255530129672007</v>
       </c>
       <c r="H48" t="n">
-        <v>129.0607219292133</v>
+        <v>74.67517378271285</v>
       </c>
       <c r="I48" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="J48" t="n">
         <v>2.0</v>
@@ -2531,28 +2255,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003602517755318639</v>
+        <v>0.007379921577924611</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03579275705284326</v>
+        <v>0.08117913735717072</v>
       </c>
       <c r="G49" t="n">
-        <v>21.92982456140351</v>
+        <v>15.366884364195158</v>
       </c>
       <c r="H49" t="n">
-        <v>123.3798750327288</v>
+        <v>75.43591650747128</v>
       </c>
       <c r="I49" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J49" t="n">
         <v>2.0</v>
@@ -2563,28 +2287,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="E50" t="n">
-        <v>0.003742863591746855</v>
+        <v>0.008453035059927833</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03602506207056348</v>
+        <v>0.08678449328192575</v>
       </c>
       <c r="G50" t="n">
-        <v>21.505376344086024</v>
+        <v>14.321518080916576</v>
       </c>
       <c r="H50" t="n">
-        <v>120.16998482335663</v>
+        <v>68.35989578822189</v>
       </c>
       <c r="I50" t="s">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="J50" t="n">
         <v>2.0</v>
@@ -2595,28 +2319,28 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004380227432232799</v>
+        <v>0.009014433547218155</v>
       </c>
       <c r="F51" t="n">
-        <v>0.040882122700839456</v>
+        <v>0.08956275911429651</v>
       </c>
       <c r="G51" t="n">
-        <v>19.841269841269842</v>
+        <v>13.850415512465373</v>
       </c>
       <c r="H51" t="n">
-        <v>107.75108394393932</v>
+        <v>65.22061300242221</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J51" t="n">
         <v>2.0</v>
@@ -2627,28 +2351,28 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001977487810093705</v>
+        <v>0.00935913442405226</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04429572694609899</v>
+        <v>0.09008166883150301</v>
       </c>
       <c r="G52" t="n">
-        <v>29.761904761904763</v>
+        <v>13.582342954159593</v>
       </c>
       <c r="H52" t="n">
-        <v>185.29547686437513</v>
+        <v>63.44859040857865</v>
       </c>
       <c r="I52" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="J52" t="n">
         <v>2.0</v>
@@ -2659,28 +2383,28 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0050645563969705576</v>
+        <v>0.010920096659926284</v>
       </c>
       <c r="F53" t="n">
-        <v>0.045878922654909754</v>
+        <v>0.10192090215931199</v>
       </c>
       <c r="G53" t="n">
-        <v>18.41620626151013</v>
+        <v>12.531328320802004</v>
       </c>
       <c r="H53" t="n">
-        <v>97.33865059219885</v>
+        <v>56.605895451916695</v>
       </c>
       <c r="I53" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="J53" t="n">
         <v>2.0</v>
@@ -2691,31 +2415,31 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0053401288138885325</v>
+        <v>2.692551984405575E-4</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04699313356221909</v>
+        <v>0.10366325139961463</v>
       </c>
       <c r="G54" t="n">
-        <v>17.92114695340502</v>
+        <v>23.391812865497077</v>
       </c>
       <c r="H54" t="n">
-        <v>93.77250006899534</v>
+        <v>192.27721485379502</v>
       </c>
       <c r="I54" t="s">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="J54" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -2723,28 +2447,28 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="E55" t="n">
-        <v>0.005565495810288014</v>
+        <v>0.004994148562059991</v>
       </c>
       <c r="F55" t="n">
-        <v>0.047615908599130785</v>
+        <v>0.11186892779014379</v>
       </c>
       <c r="G55" t="n">
-        <v>17.54385964912281</v>
+        <v>18.796992481203006</v>
       </c>
       <c r="H55" t="n">
-        <v>91.07314392687582</v>
+        <v>99.61444247100172</v>
       </c>
       <c r="I55" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J55" t="n">
         <v>2.0</v>
@@ -2755,28 +2479,28 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0062075953219964276</v>
+        <v>0.012588406414801086</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05031419366249736</v>
+        <v>0.11403615222819807</v>
       </c>
       <c r="G56" t="n">
-        <v>16.58374792703151</v>
+        <v>11.63128816516429</v>
       </c>
       <c r="H56" t="n">
-        <v>84.27830322985132</v>
+        <v>50.88664163314618</v>
       </c>
       <c r="I56" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="J56" t="n">
         <v>2.0</v>
@@ -2787,28 +2511,28 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="E57" t="n">
-        <v>0.006510213334157585</v>
+        <v>0.01325809918828799</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05141399248514195</v>
+        <v>0.11667127285693432</v>
       </c>
       <c r="G57" t="n">
-        <v>16.181229773462782</v>
+        <v>11.318619128466327</v>
       </c>
       <c r="H57" t="n">
-        <v>81.46250894942867</v>
+        <v>48.93205041085979</v>
       </c>
       <c r="I57" t="s">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="J57" t="n">
         <v>2.0</v>
@@ -2819,28 +2543,28 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0062075953219964276</v>
+        <v>0.013804913465668619</v>
       </c>
       <c r="F58" t="n">
-        <v>0.051674036734456745</v>
+        <v>0.11810870409516484</v>
       </c>
       <c r="G58" t="n">
-        <v>16.58374792703151</v>
+        <v>11.080332409972298</v>
       </c>
       <c r="H58" t="n">
-        <v>84.27830322985132</v>
+        <v>47.454079800024964</v>
       </c>
       <c r="I58" t="s">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="J58" t="n">
         <v>2.0</v>
@@ -2851,28 +2575,28 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0070082635156701175</v>
+        <v>0.01535870955229791</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0539636290706599</v>
+        <v>0.12448638268704622</v>
       </c>
       <c r="G59" t="n">
-        <v>15.576323987538942</v>
+        <v>10.473946059177795</v>
       </c>
       <c r="H59" t="n">
-        <v>77.26893027933195</v>
+        <v>43.73995881973517</v>
       </c>
       <c r="I59" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J59" t="n">
         <v>2.0</v>
@@ -2883,28 +2607,28 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0017410380522162802</v>
+        <v>0.016088944927384757</v>
       </c>
       <c r="F60" t="n">
-        <v>0.058697854331863156</v>
+        <v>0.12706141122139755</v>
       </c>
       <c r="G60" t="n">
-        <v>31.74603174603175</v>
+        <v>10.219724067450178</v>
       </c>
       <c r="H60" t="n">
-        <v>201.6912305367093</v>
+        <v>42.20360647232625</v>
       </c>
       <c r="I60" t="s">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="J60" t="n">
         <v>2.0</v>
@@ -2915,28 +2639,28 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0031531149028135217</v>
+        <v>0.01535870955229791</v>
       </c>
       <c r="F61" t="n">
-        <v>0.05885814485251908</v>
+        <v>0.12785087951642585</v>
       </c>
       <c r="G61" t="n">
-        <v>23.47417840375587</v>
+        <v>10.473946059177795</v>
       </c>
       <c r="H61" t="n">
-        <v>135.19634874898094</v>
+        <v>43.73995881973517</v>
       </c>
       <c r="I61" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="J61" t="n">
         <v>2.0</v>
@@ -2947,28 +2671,28 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="E62" t="n">
-        <v>0.001908452567787651</v>
+        <v>0.009475337757642954</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06005264079971808</v>
+        <v>0.13265472860700137</v>
       </c>
       <c r="G62" t="n">
-        <v>30.303030303030305</v>
+        <v>13.49527665317139</v>
       </c>
       <c r="H62" t="n">
-        <v>189.74128906742533</v>
+        <v>62.87534252907363</v>
       </c>
       <c r="I62" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="J62" t="n">
         <v>2.0</v>
@@ -2979,28 +2703,28 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003790209421286504</v>
+        <v>0.017288002791931018</v>
       </c>
       <c r="F63" t="n">
-        <v>0.060643350740584065</v>
+        <v>0.13311762149786882</v>
       </c>
       <c r="G63" t="n">
-        <v>21.36752136752137</v>
+        <v>9.83767830791933</v>
       </c>
       <c r="H63" t="n">
-        <v>119.13106848586008</v>
+        <v>39.91876535447367</v>
       </c>
       <c r="I63" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="J63" t="n">
         <v>2.0</v>
@@ -3011,31 +2735,31 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0011826999869568057</v>
+        <v>0.004404127838497018</v>
       </c>
       <c r="F64" t="n">
-        <v>0.08616814190685299</v>
+        <v>0.13858322265137285</v>
       </c>
       <c r="G64" t="n">
-        <v>13.661202185792352</v>
+        <v>20.05012531328321</v>
       </c>
       <c r="H64" t="n">
-        <v>92.07589248272575</v>
+        <v>108.77620115745479</v>
       </c>
       <c r="I64" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="J64" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
@@ -3043,31 +2767,31 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0012587588743074147</v>
+        <v>0.008787902649451692</v>
       </c>
       <c r="F65" t="n">
-        <v>0.08754095807683383</v>
+        <v>0.14060644239122708</v>
       </c>
       <c r="G65" t="n">
-        <v>13.368983957219253</v>
+        <v>14.035087719298247</v>
       </c>
       <c r="H65" t="n">
-        <v>89.27311582701992</v>
+        <v>66.44742739914878</v>
       </c>
       <c r="I65" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="J65" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
@@ -3075,31 +2799,31 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>267</v>
+        <v>202</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0011641550721355975</v>
+        <v>0.004822032339112055</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0890578630183732</v>
+        <v>0.1422499540038056</v>
       </c>
       <c r="G66" t="n">
-        <v>13.736263736263737</v>
+        <v>19.138755980861244</v>
       </c>
       <c r="H66" t="n">
-        <v>92.7988971849198</v>
+        <v>102.09683813720787</v>
       </c>
       <c r="I66" t="s">
-        <v>295</v>
+        <v>211</v>
       </c>
       <c r="J66" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -3107,1022 +2831,30 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0011366869743762464</v>
+        <v>0.007908146852712305</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09153321425240299</v>
+        <v>0.14761874125062968</v>
       </c>
       <c r="G67" t="n">
-        <v>13.850415512465377</v>
+        <v>14.825796886582655</v>
       </c>
       <c r="H67" t="n">
-        <v>93.90079515920027</v>
+        <v>71.75480806079283</v>
       </c>
       <c r="I67" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="J67" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" t="s">
-        <v>178</v>
-      </c>
-      <c r="D68" t="s">
-        <v>269</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3.2205592524747447E-4</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.09243005054602517</v>
-      </c>
-      <c r="G68" t="n">
-        <v>74.07407407407409</v>
-      </c>
-      <c r="H68" t="n">
-        <v>595.6137293783606</v>
-      </c>
-      <c r="I68" t="s">
-        <v>302</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" t="s">
-        <v>179</v>
-      </c>
-      <c r="D69" t="s">
-        <v>270</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.0011186066461333552</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.09508156492133518</v>
-      </c>
-      <c r="G69" t="n">
-        <v>13.927576601671312</v>
-      </c>
-      <c r="H69" t="n">
-        <v>94.64723445849522</v>
-      </c>
-      <c r="I69" t="s">
-        <v>295</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" t="s">
-        <v>271</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.0010045324509468647</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.09605841562179394</v>
-      </c>
-      <c r="G70" t="n">
-        <v>8.261049153242462</v>
-      </c>
-      <c r="H70" t="n">
-        <v>57.02794769648333</v>
-      </c>
-      <c r="I70" t="s">
-        <v>300</v>
-      </c>
-      <c r="J70" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" t="s">
-        <v>181</v>
-      </c>
-      <c r="D71" t="s">
-        <v>272</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.0010829987077020772</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.09746988369318696</v>
-      </c>
-      <c r="G71" t="n">
-        <v>14.08450704225352</v>
-      </c>
-      <c r="H71" t="n">
-        <v>96.16931696086678</v>
-      </c>
-      <c r="I71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" t="s">
-        <v>273</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.012979966941150793</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.09750804433840109</v>
-      </c>
-      <c r="G72" t="n">
-        <v>11.299435028248588</v>
-      </c>
-      <c r="H72" t="n">
-        <v>49.088679261199495</v>
-      </c>
-      <c r="I72" t="s">
-        <v>298</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" t="s">
-        <v>183</v>
-      </c>
-      <c r="D73" t="s">
-        <v>274</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.013317215329957988</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.09765957908635858</v>
-      </c>
-      <c r="G73" t="n">
-        <v>11.148272017837236</v>
-      </c>
-      <c r="H73" t="n">
-        <v>48.14601666709367</v>
-      </c>
-      <c r="I73" t="s">
-        <v>301</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" t="s">
-        <v>184</v>
-      </c>
-      <c r="D74" t="s">
-        <v>275</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.0014730129208968678</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.09798738125966121</v>
-      </c>
-      <c r="G74" t="n">
-        <v>12.658227848101266</v>
-      </c>
-      <c r="H74" t="n">
-        <v>82.5372831609625</v>
-      </c>
-      <c r="I74" t="s">
-        <v>295</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" t="s">
-        <v>185</v>
-      </c>
-      <c r="D75" t="s">
-        <v>276</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9.888316151934016E-4</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.10086082474972695</v>
-      </c>
-      <c r="G75" t="n">
-        <v>14.534883720930234</v>
-      </c>
-      <c r="H75" t="n">
-        <v>100.56666422205939</v>
-      </c>
-      <c r="I75" t="s">
-        <v>295</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" t="s">
-        <v>186</v>
-      </c>
-      <c r="D76" t="s">
-        <v>277</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.003695799506657015</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.10261278630247712</v>
-      </c>
-      <c r="G76" t="n">
-        <v>21.645021645021647</v>
-      </c>
-      <c r="H76" t="n">
-        <v>121.2242072014811</v>
-      </c>
-      <c r="I76" t="s">
-        <v>298</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" t="s">
-        <v>187</v>
-      </c>
-      <c r="D77" t="s">
-        <v>278</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.0035103665492271833</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.1035558132022019</v>
-      </c>
-      <c r="G77" t="n">
-        <v>22.222222222222225</v>
-      </c>
-      <c r="H77" t="n">
-        <v>125.60077371061199</v>
-      </c>
-      <c r="I77" t="s">
-        <v>298</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" t="s">
-        <v>188</v>
-      </c>
-      <c r="D78" t="s">
-        <v>279</v>
-      </c>
-      <c r="E78" t="n">
-        <v>9.640931458799359E-4</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.10536160808545014</v>
-      </c>
-      <c r="G78" t="n">
-        <v>14.662756598240472</v>
-      </c>
-      <c r="H78" t="n">
-        <v>101.82291266370649</v>
-      </c>
-      <c r="I78" t="s">
-        <v>295</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" t="s">
-        <v>189</v>
-      </c>
-      <c r="D79" t="s">
-        <v>280</v>
-      </c>
-      <c r="E79" t="n">
-        <v>9.237484285787791E-4</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.10871808428657938</v>
-      </c>
-      <c r="G79" t="n">
-        <v>14.880952380952381</v>
-      </c>
-      <c r="H79" t="n">
-        <v>103.97426766124836</v>
-      </c>
-      <c r="I79" t="s">
-        <v>295</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80" t="s">
-        <v>190</v>
-      </c>
-      <c r="D80" t="s">
-        <v>281</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.00417908321453891</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.1095848487367981</v>
-      </c>
-      <c r="G80" t="n">
-        <v>20.325203252032523</v>
-      </c>
-      <c r="H80" t="n">
-        <v>111.33462160907348</v>
-      </c>
-      <c r="I80" t="s">
-        <v>298</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" t="s">
-        <v>191</v>
-      </c>
-      <c r="D81" t="s">
-        <v>282</v>
-      </c>
-      <c r="E81" t="n">
-        <v>9.000688635225861E-4</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.11475878009912972</v>
-      </c>
-      <c r="G81" t="n">
-        <v>15.015015015015017</v>
-      </c>
-      <c r="H81" t="n">
-        <v>105.30089012825816</v>
-      </c>
-      <c r="I81" t="s">
-        <v>295</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" t="s">
-        <v>283</v>
-      </c>
-      <c r="E82" t="n">
-        <v>8.922629533506431E-4</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.12410566532968037</v>
-      </c>
-      <c r="G82" t="n">
-        <v>15.060240963855422</v>
-      </c>
-      <c r="H82" t="n">
-        <v>105.7492421396789</v>
-      </c>
-      <c r="I82" t="s">
-        <v>295</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" t="s">
-        <v>193</v>
-      </c>
-      <c r="D83" t="s">
-        <v>235</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2.5416386531107297E-4</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.1296235713086472</v>
-      </c>
-      <c r="G83" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="H83" t="n">
-        <v>689.7942799948736</v>
-      </c>
-      <c r="I83" t="s">
-        <v>298</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" t="s">
-        <v>194</v>
-      </c>
-      <c r="D84" t="s">
-        <v>284</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.018338093200936743</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.1313519233927562</v>
-      </c>
-      <c r="G84" t="n">
-        <v>9.416195856873824</v>
-      </c>
-      <c r="H84" t="n">
-        <v>37.65324658167218</v>
-      </c>
-      <c r="I84" t="s">
-        <v>301</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" t="s">
-        <v>109</v>
-      </c>
-      <c r="C85" t="s">
-        <v>195</v>
-      </c>
-      <c r="D85" t="s">
-        <v>285</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.002139623497300749</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.13640099795292274</v>
-      </c>
-      <c r="G85" t="n">
-        <v>11.111111111111112</v>
-      </c>
-      <c r="H85" t="n">
-        <v>68.30139334741861</v>
-      </c>
-      <c r="I85" t="s">
-        <v>295</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" t="s">
-        <v>109</v>
-      </c>
-      <c r="C86" t="s">
-        <v>196</v>
-      </c>
-      <c r="D86" t="s">
-        <v>283</v>
-      </c>
-      <c r="E86" t="n">
-        <v>8.922629533506431E-4</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.1365162318626484</v>
-      </c>
-      <c r="G86" t="n">
-        <v>15.060240963855422</v>
-      </c>
-      <c r="H86" t="n">
-        <v>105.7492421396789</v>
-      </c>
-      <c r="I86" t="s">
-        <v>295</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87" t="s">
-        <v>109</v>
-      </c>
-      <c r="C87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" t="s">
-        <v>233</v>
-      </c>
-      <c r="E87" t="n">
-        <v>8.767814480065015E-4</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.14905284616110526</v>
-      </c>
-      <c r="G87" t="n">
-        <v>15.151515151515152</v>
-      </c>
-      <c r="H87" t="n">
-        <v>106.65534546584972</v>
-      </c>
-      <c r="I87" t="s">
-        <v>295</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" t="s">
-        <v>198</v>
-      </c>
-      <c r="D88" t="s">
-        <v>286</v>
-      </c>
-      <c r="E88" t="n">
-        <v>9.824463189820386E-5</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.1503142868042519</v>
-      </c>
-      <c r="G88" t="n">
-        <v>133.33333333333334</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1230.4066594501303</v>
-      </c>
-      <c r="I88" t="s">
-        <v>298</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" t="s">
-        <v>199</v>
-      </c>
-      <c r="D89" t="s">
-        <v>287</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.005452268217812193</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.16147102029674573</v>
-      </c>
-      <c r="G89" t="n">
-        <v>17.73049645390071</v>
-      </c>
-      <c r="H89" t="n">
-        <v>92.4064462789741</v>
-      </c>
-      <c r="I89" t="s">
-        <v>303</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C90" t="s">
-        <v>200</v>
-      </c>
-      <c r="D90" t="s">
-        <v>288</v>
-      </c>
-      <c r="E90" t="n">
-        <v>8.691056516287449E-4</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.16621645587399747</v>
-      </c>
-      <c r="G90" t="n">
-        <v>15.197568389057752</v>
-      </c>
-      <c r="H90" t="n">
-        <v>107.11315899224803</v>
-      </c>
-      <c r="I90" t="s">
-        <v>295</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" t="s">
-        <v>201</v>
-      </c>
-      <c r="D91" t="s">
-        <v>289</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.005229079923647237</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.16776631421701552</v>
-      </c>
-      <c r="G91" t="n">
-        <v>18.115942028985508</v>
-      </c>
-      <c r="H91" t="n">
-        <v>95.172462666709</v>
-      </c>
-      <c r="I91" t="s">
-        <v>306</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" t="s">
-        <v>202</v>
-      </c>
-      <c r="D92" t="s">
-        <v>290</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2.2922592789026422E-4</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.17535783483605213</v>
-      </c>
-      <c r="G92" t="n">
-        <v>87.71929824561404</v>
-      </c>
-      <c r="H92" t="n">
-        <v>735.1581101834379</v>
-      </c>
-      <c r="I92" t="s">
-        <v>298</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" t="s">
-        <v>203</v>
-      </c>
-      <c r="D93" t="s">
-        <v>289</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.005229079923647237</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.1830177973276533</v>
-      </c>
-      <c r="G93" t="n">
-        <v>18.115942028985508</v>
-      </c>
-      <c r="H93" t="n">
-        <v>95.172462666709</v>
-      </c>
-      <c r="I93" t="s">
-        <v>307</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>101</v>
-      </c>
-      <c r="B94" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" t="s">
-        <v>204</v>
-      </c>
-      <c r="D94" t="s">
-        <v>291</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.0031396569045007397</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.1847567332263897</v>
-      </c>
-      <c r="G94" t="n">
-        <v>9.708737864077671</v>
-      </c>
-      <c r="H94" t="n">
-        <v>55.95768690402443</v>
-      </c>
-      <c r="I94" t="s">
-        <v>308</v>
-      </c>
-      <c r="J94" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" t="s">
-        <v>111</v>
-      </c>
-      <c r="C95" t="s">
-        <v>205</v>
-      </c>
-      <c r="D95" t="s">
-        <v>292</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.0048490302551619105</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.18668766482373356</v>
-      </c>
-      <c r="G95" t="n">
-        <v>18.832391713747647</v>
-      </c>
-      <c r="H95" t="n">
-        <v>100.35737366128411</v>
-      </c>
-      <c r="I95" t="s">
-        <v>303</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96" t="s">
-        <v>109</v>
-      </c>
-      <c r="C96" t="s">
-        <v>206</v>
-      </c>
-      <c r="D96" t="s">
-        <v>288</v>
-      </c>
-      <c r="E96" t="n">
-        <v>8.691056516287449E-4</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.1899616638559971</v>
-      </c>
-      <c r="G96" t="n">
-        <v>15.197568389057752</v>
-      </c>
-      <c r="H96" t="n">
-        <v>107.11315899224803</v>
-      </c>
-      <c r="I96" t="s">
-        <v>295</v>
-      </c>
-      <c r="J96" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97" t="s">
-        <v>111</v>
-      </c>
-      <c r="C97" t="s">
-        <v>207</v>
-      </c>
-      <c r="D97" t="s">
-        <v>293</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.007071713317772018</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.19447211623873048</v>
-      </c>
-      <c r="G97" t="n">
-        <v>15.503875968992249</v>
-      </c>
-      <c r="H97" t="n">
-        <v>76.76980607928414</v>
-      </c>
-      <c r="I97" t="s">
-        <v>303</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>105</v>
-      </c>
-      <c r="B98" t="s">
-        <v>111</v>
-      </c>
-      <c r="C98" t="s">
-        <v>208</v>
-      </c>
-      <c r="D98" t="s">
-        <v>294</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.004637908191431057</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.198399405966773</v>
-      </c>
-      <c r="G98" t="n">
-        <v>19.26782273603083</v>
-      </c>
-      <c r="H98" t="n">
-        <v>103.53548815426782</v>
-      </c>
-      <c r="I98" t="s">
-        <v>309</v>
-      </c>
-      <c r="J98" t="n">
         <v>2.0</v>
       </c>
     </row>
